--- a/tests/outputs/html.xlsx
+++ b/tests/outputs/html.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -58,13 +58,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -77,34 +83,102 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,84 +479,84 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="17.58982832618025"/>
-    <col customWidth="1" max="2" min="2" width="74.15206008583691"/>
-    <col customWidth="1" max="3" min="3" width="7.52115879828326"/>
-    <col customWidth="1" max="4" min="4" width="6.237896995708153"/>
-    <col customWidth="1" max="5" min="5" width="7.52115879828326"/>
-    <col customWidth="1" max="6" min="6" width="6.237896995708153"/>
+    <col width="17.58982832618025" customWidth="1" min="1" max="1"/>
+    <col width="74.15206008583691" customWidth="1" min="2" max="2"/>
+    <col width="7.52115879828326" customWidth="1" min="3" max="3"/>
+    <col width="6.237896995708153" customWidth="1" min="4" max="4"/>
+    <col width="7.52115879828326" customWidth="1" min="5" max="5"/>
+    <col width="6.237896995708153" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.5" r="1">
+    <row r="1" ht="15.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="2">
+    <row r="2" ht="15.5" customHeight="1">
       <c r="A2" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="3">
+    <row r="3" ht="15.5" customHeight="1">
       <c r="A3" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="4">
+    <row r="4" ht="15.5" customHeight="1">
       <c r="A4" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="5">
+    <row r="5" ht="15.5" customHeight="1">
       <c r="A5" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="6">
+    <row r="6" ht="15.5" customHeight="1">
       <c r="A6" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="7">
+    <row r="7" ht="15.5" customHeight="1">
       <c r="A7" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="21.75" r="8">
+    <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>International Human Development Indicators</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="9">
+    <row r="9" ht="15.5" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Accessed: 2/25/2013,2:41 PM from: http://hdr.undp.org</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="10">
+    <row r="10" ht="15.5" customHeight="1">
       <c r="A10" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="11">
+    <row r="11" ht="15.5" customHeight="1">
       <c r="A11" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="21.75" r="12">
+    <row r="12" ht="21.75" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Under-five mortality (per 1,000 live births)</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="13">
+    <row r="13" ht="15.5" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Probability of dying between birth and exactly age 5, expressed per 1,000 live births.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="14">
+    <row r="14" ht="15.5" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Source: Inter-agency Group for Child Mortality Estimation (UNICEF, WHO, UN Population Division and World Bank) 2012. Accessed March 2012.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="15">
+    <row r="15" ht="15.5" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Data in the tables are those available to the Human Development Report Office as of 15 October 2012, unless otherwise specified.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="16">
+    <row r="16" ht="15.5" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t>HDI Rank</t>
@@ -500,7 +574,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="17">
+    <row r="17" ht="15.5" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -520,7 +594,7 @@
       </c>
       <c r="F17" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="18">
+    <row r="18" ht="15.5" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -540,7 +614,7 @@
       </c>
       <c r="F18" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="19">
+    <row r="19" ht="15.5" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -560,7 +634,7 @@
       </c>
       <c r="F19" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="20">
+    <row r="20" ht="15.5" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -580,7 +654,7 @@
       </c>
       <c r="F20" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="21">
+    <row r="21" ht="15.5" customHeight="1">
       <c r="A21" s="1" t="n">
         <v>1</v>
       </c>
@@ -598,7 +672,7 @@
       </c>
       <c r="F21" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="22">
+    <row r="22" ht="15.5" customHeight="1">
       <c r="A22" s="1" t="n">
         <v>2</v>
       </c>
@@ -616,7 +690,7 @@
       </c>
       <c r="F22" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="23">
+    <row r="23" ht="15.5" customHeight="1">
       <c r="A23" s="1" t="n">
         <v>3</v>
       </c>
@@ -634,7 +708,7 @@
       </c>
       <c r="F23" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="24">
+    <row r="24" ht="15.5" customHeight="1">
       <c r="A24" s="1" t="n">
         <v>4</v>
       </c>
@@ -652,7 +726,7 @@
       </c>
       <c r="F24" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="25">
+    <row r="25" ht="15.5" customHeight="1">
       <c r="A25" s="1" t="n">
         <v>5</v>
       </c>
@@ -670,7 +744,7 @@
       </c>
       <c r="F25" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="26">
+    <row r="26" ht="15.5" customHeight="1">
       <c r="A26" s="1" t="n">
         <v>6</v>
       </c>
@@ -688,7 +762,7 @@
       </c>
       <c r="F26" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="27">
+    <row r="27" ht="15.5" customHeight="1">
       <c r="A27" s="1" t="n">
         <v>7</v>
       </c>
@@ -706,7 +780,7 @@
       </c>
       <c r="F27" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="28">
+    <row r="28" ht="15.5" customHeight="1">
       <c r="A28" s="1" t="n">
         <v>8</v>
       </c>
@@ -724,7 +798,7 @@
       </c>
       <c r="F28" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="29">
+    <row r="29" ht="15.5" customHeight="1">
       <c r="A29" s="1" t="n">
         <v>9</v>
       </c>
@@ -742,7 +816,7 @@
       </c>
       <c r="F29" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="30">
+    <row r="30" ht="15.5" customHeight="1">
       <c r="A30" s="1" t="n">
         <v>10</v>
       </c>
@@ -760,7 +834,7 @@
       </c>
       <c r="F30" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="31">
+    <row r="31" ht="15.5" customHeight="1">
       <c r="A31" s="1" t="n">
         <v>11</v>
       </c>
@@ -778,7 +852,7 @@
       </c>
       <c r="F31" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="32">
+    <row r="32" ht="15.5" customHeight="1">
       <c r="A32" s="1" t="n">
         <v>12</v>
       </c>
@@ -796,7 +870,7 @@
       </c>
       <c r="F32" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="33">
+    <row r="33" ht="15.5" customHeight="1">
       <c r="A33" s="1" t="n">
         <v>13</v>
       </c>
@@ -814,7 +888,7 @@
       </c>
       <c r="F33" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="34">
+    <row r="34" ht="15.5" customHeight="1">
       <c r="A34" s="1" t="n">
         <v>13</v>
       </c>
@@ -836,7 +910,7 @@
       </c>
       <c r="F34" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="35">
+    <row r="35" ht="15.5" customHeight="1">
       <c r="A35" s="1" t="n">
         <v>15</v>
       </c>
@@ -854,7 +928,7 @@
       </c>
       <c r="F35" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="36">
+    <row r="36" ht="15.5" customHeight="1">
       <c r="A36" s="1" t="n">
         <v>16</v>
       </c>
@@ -872,7 +946,7 @@
       </c>
       <c r="F36" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="37">
+    <row r="37" ht="15.5" customHeight="1">
       <c r="A37" s="1" t="n">
         <v>17</v>
       </c>
@@ -890,7 +964,7 @@
       </c>
       <c r="F37" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="38">
+    <row r="38" ht="15.5" customHeight="1">
       <c r="A38" s="1" t="n">
         <v>18</v>
       </c>
@@ -908,7 +982,7 @@
       </c>
       <c r="F38" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="39">
+    <row r="39" ht="15.5" customHeight="1">
       <c r="A39" s="1" t="n">
         <v>18</v>
       </c>
@@ -926,7 +1000,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="40">
+    <row r="40" ht="15.5" customHeight="1">
       <c r="A40" s="1" t="n">
         <v>20</v>
       </c>
@@ -944,7 +1018,7 @@
       </c>
       <c r="F40" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="41">
+    <row r="41" ht="15.5" customHeight="1">
       <c r="A41" s="1" t="n">
         <v>21</v>
       </c>
@@ -962,7 +1036,7 @@
       </c>
       <c r="F41" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="42">
+    <row r="42" ht="15.5" customHeight="1">
       <c r="A42" s="1" t="n">
         <v>21</v>
       </c>
@@ -980,7 +1054,7 @@
       </c>
       <c r="F42" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="43">
+    <row r="43" ht="15.5" customHeight="1">
       <c r="A43" s="1" t="n">
         <v>23</v>
       </c>
@@ -998,7 +1072,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="44">
+    <row r="44" ht="15.5" customHeight="1">
       <c r="A44" s="1" t="n">
         <v>24</v>
       </c>
@@ -1016,7 +1090,7 @@
       </c>
       <c r="F44" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="45">
+    <row r="45" ht="15.5" customHeight="1">
       <c r="A45" s="1" t="n">
         <v>25</v>
       </c>
@@ -1034,7 +1108,7 @@
       </c>
       <c r="F45" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="46">
+    <row r="46" ht="15.5" customHeight="1">
       <c r="A46" s="1" t="n">
         <v>26</v>
       </c>
@@ -1052,7 +1126,7 @@
       </c>
       <c r="F46" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="47">
+    <row r="47" ht="15.5" customHeight="1">
       <c r="A47" s="1" t="n">
         <v>26</v>
       </c>
@@ -1070,7 +1144,7 @@
       </c>
       <c r="F47" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="48">
+    <row r="48" ht="15.5" customHeight="1">
       <c r="A48" s="1" t="n">
         <v>28</v>
       </c>
@@ -1088,7 +1162,7 @@
       </c>
       <c r="F48" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="49">
+    <row r="49" ht="15.5" customHeight="1">
       <c r="A49" s="1" t="n">
         <v>29</v>
       </c>
@@ -1106,7 +1180,7 @@
       </c>
       <c r="F49" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="50">
+    <row r="50" ht="15.5" customHeight="1">
       <c r="A50" s="1" t="n">
         <v>30</v>
       </c>
@@ -1124,7 +1198,7 @@
       </c>
       <c r="F50" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="51">
+    <row r="51" ht="15.5" customHeight="1">
       <c r="A51" s="1" t="n">
         <v>31</v>
       </c>
@@ -1142,7 +1216,7 @@
       </c>
       <c r="F51" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="52">
+    <row r="52" ht="15.5" customHeight="1">
       <c r="A52" s="1" t="n">
         <v>32</v>
       </c>
@@ -1160,7 +1234,7 @@
       </c>
       <c r="F52" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="53">
+    <row r="53" ht="15.5" customHeight="1">
       <c r="A53" s="1" t="n">
         <v>33</v>
       </c>
@@ -1178,7 +1252,7 @@
       </c>
       <c r="F53" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="54">
+    <row r="54" ht="15.5" customHeight="1">
       <c r="A54" s="1" t="n">
         <v>33</v>
       </c>
@@ -1196,7 +1270,7 @@
       </c>
       <c r="F54" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="55">
+    <row r="55" ht="15.5" customHeight="1">
       <c r="A55" s="1" t="n">
         <v>35</v>
       </c>
@@ -1214,7 +1288,7 @@
       </c>
       <c r="F55" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="56">
+    <row r="56" ht="15.5" customHeight="1">
       <c r="A56" s="1" t="n">
         <v>36</v>
       </c>
@@ -1232,7 +1306,7 @@
       </c>
       <c r="F56" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="57">
+    <row r="57" ht="15.5" customHeight="1">
       <c r="A57" s="1" t="n">
         <v>37</v>
       </c>
@@ -1250,7 +1324,7 @@
       </c>
       <c r="F57" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="58">
+    <row r="58" ht="15.5" customHeight="1">
       <c r="A58" s="1" t="n">
         <v>38</v>
       </c>
@@ -1268,7 +1342,7 @@
       </c>
       <c r="F58" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="59">
+    <row r="59" ht="15.5" customHeight="1">
       <c r="A59" s="1" t="n">
         <v>39</v>
       </c>
@@ -1286,7 +1360,7 @@
       </c>
       <c r="F59" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="60">
+    <row r="60" ht="15.5" customHeight="1">
       <c r="A60" s="1" t="n">
         <v>40</v>
       </c>
@@ -1304,7 +1378,7 @@
       </c>
       <c r="F60" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="61">
+    <row r="61" ht="15.5" customHeight="1">
       <c r="A61" s="1" t="n">
         <v>41</v>
       </c>
@@ -1322,7 +1396,7 @@
       </c>
       <c r="F61" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="62">
+    <row r="62" ht="15.5" customHeight="1">
       <c r="A62" s="1" t="n">
         <v>41</v>
       </c>
@@ -1340,7 +1414,7 @@
       </c>
       <c r="F62" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="63">
+    <row r="63" ht="15.5" customHeight="1">
       <c r="A63" s="1" t="n">
         <v>43</v>
       </c>
@@ -1358,7 +1432,7 @@
       </c>
       <c r="F63" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="64">
+    <row r="64" ht="15.5" customHeight="1">
       <c r="A64" s="1" t="n">
         <v>44</v>
       </c>
@@ -1376,7 +1450,7 @@
       </c>
       <c r="F64" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="65">
+    <row r="65" ht="15.5" customHeight="1">
       <c r="A65" s="1" t="n">
         <v>45</v>
       </c>
@@ -1394,7 +1468,7 @@
       </c>
       <c r="F65" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="66">
+    <row r="66" ht="15.5" customHeight="1">
       <c r="A66" s="1" t="n">
         <v>46</v>
       </c>
@@ -1412,7 +1486,7 @@
       </c>
       <c r="F66" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="67">
+    <row r="67" ht="15.5" customHeight="1">
       <c r="A67" s="1" t="n">
         <v>47</v>
       </c>
@@ -1430,7 +1504,7 @@
       </c>
       <c r="F67" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="68">
+    <row r="68" ht="15.5" customHeight="1">
       <c r="A68" s="1" t="n">
         <v>48</v>
       </c>
@@ -1448,7 +1522,7 @@
       </c>
       <c r="F68" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="69">
+    <row r="69" ht="15.5" customHeight="1">
       <c r="A69" s="1" t="n">
         <v>49</v>
       </c>
@@ -1466,7 +1540,7 @@
       </c>
       <c r="F69" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="70">
+    <row r="70" ht="15.5" customHeight="1">
       <c r="A70" s="1" t="n">
         <v>50</v>
       </c>
@@ -1484,7 +1558,7 @@
       </c>
       <c r="F70" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="71">
+    <row r="71" ht="15.5" customHeight="1">
       <c r="A71" s="1" t="n">
         <v>51</v>
       </c>
@@ -1502,7 +1576,7 @@
       </c>
       <c r="F71" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="72">
+    <row r="72" ht="15.5" customHeight="1">
       <c r="A72" s="1" t="n">
         <v>52</v>
       </c>
@@ -1520,7 +1594,7 @@
       </c>
       <c r="F72" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="73">
+    <row r="73" ht="15.5" customHeight="1">
       <c r="A73" s="1" t="n">
         <v>53</v>
       </c>
@@ -1538,7 +1612,7 @@
       </c>
       <c r="F73" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="74">
+    <row r="74" ht="15.5" customHeight="1">
       <c r="A74" s="1" t="n">
         <v>54</v>
       </c>
@@ -1556,7 +1630,7 @@
       </c>
       <c r="F74" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="75">
+    <row r="75" ht="15.5" customHeight="1">
       <c r="A75" s="1" t="n">
         <v>55</v>
       </c>
@@ -1574,7 +1648,7 @@
       </c>
       <c r="F75" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="76">
+    <row r="76" ht="15.5" customHeight="1">
       <c r="A76" s="1" t="n">
         <v>56</v>
       </c>
@@ -1592,7 +1666,7 @@
       </c>
       <c r="F76" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="77">
+    <row r="77" ht="15.5" customHeight="1">
       <c r="A77" s="1" t="n">
         <v>57</v>
       </c>
@@ -1610,7 +1684,7 @@
       </c>
       <c r="F77" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="78">
+    <row r="78" ht="15.5" customHeight="1">
       <c r="A78" s="1" t="n">
         <v>57</v>
       </c>
@@ -1628,7 +1702,7 @@
       </c>
       <c r="F78" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="79">
+    <row r="79" ht="15.5" customHeight="1">
       <c r="A79" s="1" t="n">
         <v>59</v>
       </c>
@@ -1646,7 +1720,7 @@
       </c>
       <c r="F79" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="80">
+    <row r="80" ht="15.5" customHeight="1">
       <c r="A80" s="1" t="n">
         <v>59</v>
       </c>
@@ -1664,7 +1738,7 @@
       </c>
       <c r="F80" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="81">
+    <row r="81" ht="15.5" customHeight="1">
       <c r="A81" s="1" t="n">
         <v>61</v>
       </c>
@@ -1682,7 +1756,7 @@
       </c>
       <c r="F81" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="82">
+    <row r="82" ht="15.5" customHeight="1">
       <c r="A82" s="1" t="n">
         <v>62</v>
       </c>
@@ -1700,7 +1774,7 @@
       </c>
       <c r="F82" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="83">
+    <row r="83" ht="15.5" customHeight="1">
       <c r="A83" s="1" t="n">
         <v>63</v>
       </c>
@@ -1718,7 +1792,7 @@
       </c>
       <c r="F83" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="84">
+    <row r="84" ht="15.5" customHeight="1">
       <c r="A84" s="1" t="n">
         <v>64</v>
       </c>
@@ -1736,7 +1810,7 @@
       </c>
       <c r="F84" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="85">
+    <row r="85" ht="15.5" customHeight="1">
       <c r="A85" s="1" t="n">
         <v>64</v>
       </c>
@@ -1754,7 +1828,7 @@
       </c>
       <c r="F85" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="86">
+    <row r="86" ht="15.5" customHeight="1">
       <c r="A86" s="1" t="n">
         <v>64</v>
       </c>
@@ -1772,7 +1846,7 @@
       </c>
       <c r="F86" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="87">
+    <row r="87" ht="15.5" customHeight="1">
       <c r="A87" s="1" t="n">
         <v>67</v>
       </c>
@@ -1790,7 +1864,7 @@
       </c>
       <c r="F87" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="88">
+    <row r="88" ht="15.5" customHeight="1">
       <c r="A88" s="1" t="n">
         <v>67</v>
       </c>
@@ -1808,7 +1882,7 @@
       </c>
       <c r="F88" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="89">
+    <row r="89" ht="15.5" customHeight="1">
       <c r="A89" s="1" t="n">
         <v>69</v>
       </c>
@@ -1826,7 +1900,7 @@
       </c>
       <c r="F89" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="90">
+    <row r="90" ht="15.5" customHeight="1">
       <c r="A90" s="1" t="n">
         <v>70</v>
       </c>
@@ -1844,7 +1918,7 @@
       </c>
       <c r="F90" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="91">
+    <row r="91" ht="15.5" customHeight="1">
       <c r="A91" s="1" t="n">
         <v>71</v>
       </c>
@@ -1862,7 +1936,7 @@
       </c>
       <c r="F91" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="92">
+    <row r="92" ht="15.5" customHeight="1">
       <c r="A92" s="1" t="n">
         <v>72</v>
       </c>
@@ -1880,7 +1954,7 @@
       </c>
       <c r="F92" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="93">
+    <row r="93" ht="15.5" customHeight="1">
       <c r="A93" s="1" t="n">
         <v>72</v>
       </c>
@@ -1898,7 +1972,7 @@
       </c>
       <c r="F93" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="94">
+    <row r="94" ht="15.5" customHeight="1">
       <c r="A94" s="1" t="n">
         <v>72</v>
       </c>
@@ -1916,7 +1990,7 @@
       </c>
       <c r="F94" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="95">
+    <row r="95" ht="15.5" customHeight="1">
       <c r="A95" s="1" t="n">
         <v>72</v>
       </c>
@@ -1934,7 +2008,7 @@
       </c>
       <c r="F95" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="96">
+    <row r="96" ht="15.5" customHeight="1">
       <c r="A96" s="1" t="n">
         <v>76</v>
       </c>
@@ -1952,7 +2026,7 @@
       </c>
       <c r="F96" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="97">
+    <row r="97" ht="15.5" customHeight="1">
       <c r="A97" s="1" t="n">
         <v>77</v>
       </c>
@@ -1970,7 +2044,7 @@
       </c>
       <c r="F97" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="98">
+    <row r="98" ht="15.5" customHeight="1">
       <c r="A98" s="1" t="n">
         <v>78</v>
       </c>
@@ -1988,7 +2062,7 @@
       </c>
       <c r="F98" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="99">
+    <row r="99" ht="15.5" customHeight="1">
       <c r="A99" s="1" t="n">
         <v>78</v>
       </c>
@@ -2006,7 +2080,7 @@
       </c>
       <c r="F99" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="100">
+    <row r="100" ht="15.5" customHeight="1">
       <c r="A100" s="1" t="n">
         <v>80</v>
       </c>
@@ -2024,7 +2098,7 @@
       </c>
       <c r="F100" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="101">
+    <row r="101" ht="15.5" customHeight="1">
       <c r="A101" s="1" t="n">
         <v>81</v>
       </c>
@@ -2042,7 +2116,7 @@
       </c>
       <c r="F101" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="102">
+    <row r="102" ht="15.5" customHeight="1">
       <c r="A102" s="1" t="n">
         <v>82</v>
       </c>
@@ -2060,7 +2134,7 @@
       </c>
       <c r="F102" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="103">
+    <row r="103" ht="15.5" customHeight="1">
       <c r="A103" s="1" t="n">
         <v>83</v>
       </c>
@@ -2078,7 +2152,7 @@
       </c>
       <c r="F103" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="104">
+    <row r="104" ht="15.5" customHeight="1">
       <c r="A104" s="1" t="n">
         <v>84</v>
       </c>
@@ -2096,7 +2170,7 @@
       </c>
       <c r="F104" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="105">
+    <row r="105" ht="15.5" customHeight="1">
       <c r="A105" s="1" t="n">
         <v>85</v>
       </c>
@@ -2114,7 +2188,7 @@
       </c>
       <c r="F105" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="106">
+    <row r="106" ht="15.5" customHeight="1">
       <c r="A106" s="1" t="n">
         <v>85</v>
       </c>
@@ -2132,7 +2206,7 @@
       </c>
       <c r="F106" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="107">
+    <row r="107" ht="15.5" customHeight="1">
       <c r="A107" s="1" t="n">
         <v>87</v>
       </c>
@@ -2150,7 +2224,7 @@
       </c>
       <c r="F107" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="108">
+    <row r="108" ht="15.5" customHeight="1">
       <c r="A108" s="1" t="n">
         <v>88</v>
       </c>
@@ -2168,7 +2242,7 @@
       </c>
       <c r="F108" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="109">
+    <row r="109" ht="15.5" customHeight="1">
       <c r="A109" s="1" t="n">
         <v>89</v>
       </c>
@@ -2186,7 +2260,7 @@
       </c>
       <c r="F109" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="110">
+    <row r="110" ht="15.5" customHeight="1">
       <c r="A110" s="1" t="n">
         <v>90</v>
       </c>
@@ -2204,7 +2278,7 @@
       </c>
       <c r="F110" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="111">
+    <row r="111" ht="15.5" customHeight="1">
       <c r="A111" s="1" t="n">
         <v>91</v>
       </c>
@@ -2222,7 +2296,7 @@
       </c>
       <c r="F111" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="112">
+    <row r="112" ht="15.5" customHeight="1">
       <c r="A112" s="1" t="n">
         <v>92</v>
       </c>
@@ -2240,7 +2314,7 @@
       </c>
       <c r="F112" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="113">
+    <row r="113" ht="15.5" customHeight="1">
       <c r="A113" s="1" t="n">
         <v>93</v>
       </c>
@@ -2258,7 +2332,7 @@
       </c>
       <c r="F113" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="114">
+    <row r="114" ht="15.5" customHeight="1">
       <c r="A114" s="1" t="n">
         <v>94</v>
       </c>
@@ -2276,7 +2350,7 @@
       </c>
       <c r="F114" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="115">
+    <row r="115" ht="15.5" customHeight="1">
       <c r="A115" s="1" t="n">
         <v>95</v>
       </c>
@@ -2294,7 +2368,7 @@
       </c>
       <c r="F115" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="116">
+    <row r="116" ht="15.5" customHeight="1">
       <c r="A116" s="1" t="n">
         <v>96</v>
       </c>
@@ -2312,7 +2386,7 @@
       </c>
       <c r="F116" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="117">
+    <row r="117" ht="15.5" customHeight="1">
       <c r="A117" s="1" t="n">
         <v>96</v>
       </c>
@@ -2330,7 +2404,7 @@
       </c>
       <c r="F117" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="118">
+    <row r="118" ht="15.5" customHeight="1">
       <c r="A118" s="1" t="n">
         <v>96</v>
       </c>
@@ -2348,7 +2422,7 @@
       </c>
       <c r="F118" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="119">
+    <row r="119" ht="15.5" customHeight="1">
       <c r="A119" s="1" t="n">
         <v>96</v>
       </c>
@@ -2366,7 +2440,7 @@
       </c>
       <c r="F119" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="120">
+    <row r="120" ht="15.5" customHeight="1">
       <c r="A120" s="1" t="n">
         <v>100</v>
       </c>
@@ -2384,7 +2458,7 @@
       </c>
       <c r="F120" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="121">
+    <row r="121" ht="15.5" customHeight="1">
       <c r="A121" s="1" t="n">
         <v>101</v>
       </c>
@@ -2402,7 +2476,7 @@
       </c>
       <c r="F121" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="122">
+    <row r="122" ht="15.5" customHeight="1">
       <c r="A122" s="1" t="n">
         <v>102</v>
       </c>
@@ -2420,7 +2494,7 @@
       </c>
       <c r="F122" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="123">
+    <row r="123" ht="15.5" customHeight="1">
       <c r="A123" s="1" t="n">
         <v>103</v>
       </c>
@@ -2438,7 +2512,7 @@
       </c>
       <c r="F123" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="124">
+    <row r="124" ht="15.5" customHeight="1">
       <c r="A124" s="1" t="n">
         <v>104</v>
       </c>
@@ -2456,7 +2530,7 @@
       </c>
       <c r="F124" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="125">
+    <row r="125" ht="15.5" customHeight="1">
       <c r="A125" s="1" t="n">
         <v>105</v>
       </c>
@@ -2474,7 +2548,7 @@
       </c>
       <c r="F125" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="126">
+    <row r="126" ht="15.5" customHeight="1">
       <c r="A126" s="1" t="n">
         <v>106</v>
       </c>
@@ -2492,7 +2566,7 @@
       </c>
       <c r="F126" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="127">
+    <row r="127" ht="15.5" customHeight="1">
       <c r="A127" s="1" t="n">
         <v>107</v>
       </c>
@@ -2510,7 +2584,7 @@
       </c>
       <c r="F127" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="128">
+    <row r="128" ht="15.5" customHeight="1">
       <c r="A128" s="1" t="n">
         <v>108</v>
       </c>
@@ -2528,7 +2602,7 @@
       </c>
       <c r="F128" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="129">
+    <row r="129" ht="15.5" customHeight="1">
       <c r="A129" s="1" t="n">
         <v>108</v>
       </c>
@@ -2546,7 +2620,7 @@
       </c>
       <c r="F129" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="130">
+    <row r="130" ht="15.5" customHeight="1">
       <c r="A130" s="1" t="n">
         <v>110</v>
       </c>
@@ -2564,7 +2638,7 @@
       </c>
       <c r="F130" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="131">
+    <row r="131" ht="15.5" customHeight="1">
       <c r="A131" s="1" t="n">
         <v>111</v>
       </c>
@@ -2582,7 +2656,7 @@
       </c>
       <c r="F131" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="132">
+    <row r="132" ht="15.5" customHeight="1">
       <c r="A132" s="1" t="n">
         <v>112</v>
       </c>
@@ -2600,7 +2674,7 @@
       </c>
       <c r="F132" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="133">
+    <row r="133" ht="15.5" customHeight="1">
       <c r="A133" s="1" t="n">
         <v>113</v>
       </c>
@@ -2618,7 +2692,7 @@
       </c>
       <c r="F133" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="134">
+    <row r="134" ht="15.5" customHeight="1">
       <c r="A134" s="1" t="n">
         <v>114</v>
       </c>
@@ -2636,7 +2710,7 @@
       </c>
       <c r="F134" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="135">
+    <row r="135" ht="15.5" customHeight="1">
       <c r="A135" s="1" t="n">
         <v>114</v>
       </c>
@@ -2654,7 +2728,7 @@
       </c>
       <c r="F135" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="136">
+    <row r="136" ht="15.5" customHeight="1">
       <c r="A136" s="1" t="n">
         <v>116</v>
       </c>
@@ -2672,7 +2746,7 @@
       </c>
       <c r="F136" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="137">
+    <row r="137" ht="15.5" customHeight="1">
       <c r="A137" s="1" t="n">
         <v>117</v>
       </c>
@@ -2690,7 +2764,7 @@
       </c>
       <c r="F137" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="138">
+    <row r="138" ht="15.5" customHeight="1">
       <c r="A138" s="1" t="n">
         <v>118</v>
       </c>
@@ -2708,7 +2782,7 @@
       </c>
       <c r="F138" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="139">
+    <row r="139" ht="15.5" customHeight="1">
       <c r="A139" s="1" t="n">
         <v>119</v>
       </c>
@@ -2726,7 +2800,7 @@
       </c>
       <c r="F139" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="140">
+    <row r="140" ht="15.5" customHeight="1">
       <c r="A140" s="1" t="n">
         <v>120</v>
       </c>
@@ -2744,7 +2818,7 @@
       </c>
       <c r="F140" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="141">
+    <row r="141" ht="15.5" customHeight="1">
       <c r="A141" s="1" t="n">
         <v>121</v>
       </c>
@@ -2762,7 +2836,7 @@
       </c>
       <c r="F141" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="142">
+    <row r="142" ht="15.5" customHeight="1">
       <c r="A142" s="1" t="n">
         <v>121</v>
       </c>
@@ -2780,7 +2854,7 @@
       </c>
       <c r="F142" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="143">
+    <row r="143" ht="15.5" customHeight="1">
       <c r="A143" s="1" t="n">
         <v>121</v>
       </c>
@@ -2798,7 +2872,7 @@
       </c>
       <c r="F143" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="144">
+    <row r="144" ht="15.5" customHeight="1">
       <c r="A144" s="1" t="n">
         <v>124</v>
       </c>
@@ -2816,7 +2890,7 @@
       </c>
       <c r="F144" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="145">
+    <row r="145" ht="15.5" customHeight="1">
       <c r="A145" s="1" t="n">
         <v>125</v>
       </c>
@@ -2834,7 +2908,7 @@
       </c>
       <c r="F145" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="146">
+    <row r="146" ht="15.5" customHeight="1">
       <c r="A146" s="1" t="n">
         <v>125</v>
       </c>
@@ -2852,7 +2926,7 @@
       </c>
       <c r="F146" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="147">
+    <row r="147" ht="15.5" customHeight="1">
       <c r="A147" s="1" t="n">
         <v>127</v>
       </c>
@@ -2870,7 +2944,7 @@
       </c>
       <c r="F147" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="148">
+    <row r="148" ht="15.5" customHeight="1">
       <c r="A148" s="1" t="n">
         <v>128</v>
       </c>
@@ -2888,7 +2962,7 @@
       </c>
       <c r="F148" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="149">
+    <row r="149" ht="15.5" customHeight="1">
       <c r="A149" s="1" t="n">
         <v>129</v>
       </c>
@@ -2906,7 +2980,7 @@
       </c>
       <c r="F149" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="150">
+    <row r="150" ht="15.5" customHeight="1">
       <c r="A150" s="1" t="n">
         <v>130</v>
       </c>
@@ -2924,7 +2998,7 @@
       </c>
       <c r="F150" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="151">
+    <row r="151" ht="15.5" customHeight="1">
       <c r="A151" s="1" t="n">
         <v>131</v>
       </c>
@@ -2942,7 +3016,7 @@
       </c>
       <c r="F151" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="152">
+    <row r="152" ht="15.5" customHeight="1">
       <c r="A152" s="1" t="n">
         <v>132</v>
       </c>
@@ -2960,7 +3034,7 @@
       </c>
       <c r="F152" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="153">
+    <row r="153" ht="15.5" customHeight="1">
       <c r="A153" s="1" t="n">
         <v>133</v>
       </c>
@@ -2978,7 +3052,7 @@
       </c>
       <c r="F153" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="154">
+    <row r="154" ht="15.5" customHeight="1">
       <c r="A154" s="1" t="n">
         <v>134</v>
       </c>
@@ -2996,7 +3070,7 @@
       </c>
       <c r="F154" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="155">
+    <row r="155" ht="15.5" customHeight="1">
       <c r="A155" s="1" t="n">
         <v>135</v>
       </c>
@@ -3014,7 +3088,7 @@
       </c>
       <c r="F155" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="156">
+    <row r="156" ht="15.5" customHeight="1">
       <c r="A156" s="1" t="n">
         <v>136</v>
       </c>
@@ -3032,7 +3106,7 @@
       </c>
       <c r="F156" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="157">
+    <row r="157" ht="15.5" customHeight="1">
       <c r="A157" s="1" t="n">
         <v>136</v>
       </c>
@@ -3050,7 +3124,7 @@
       </c>
       <c r="F157" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="158">
+    <row r="158" ht="15.5" customHeight="1">
       <c r="A158" s="1" t="n">
         <v>138</v>
       </c>
@@ -3068,7 +3142,7 @@
       </c>
       <c r="F158" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="159">
+    <row r="159" ht="15.5" customHeight="1">
       <c r="A159" s="1" t="n">
         <v>138</v>
       </c>
@@ -3086,7 +3160,7 @@
       </c>
       <c r="F159" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="160">
+    <row r="160" ht="15.5" customHeight="1">
       <c r="A160" s="1" t="n">
         <v>140</v>
       </c>
@@ -3104,7 +3178,7 @@
       </c>
       <c r="F160" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="161">
+    <row r="161" ht="15.5" customHeight="1">
       <c r="A161" s="1" t="n">
         <v>141</v>
       </c>
@@ -3122,7 +3196,7 @@
       </c>
       <c r="F161" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="162">
+    <row r="162" ht="15.5" customHeight="1">
       <c r="A162" s="1" t="n">
         <v>142</v>
       </c>
@@ -3140,7 +3214,7 @@
       </c>
       <c r="F162" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="163">
+    <row r="163" ht="15.5" customHeight="1">
       <c r="A163" s="1" t="n">
         <v>143</v>
       </c>
@@ -3158,7 +3232,7 @@
       </c>
       <c r="F163" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="164">
+    <row r="164" ht="15.5" customHeight="1">
       <c r="A164" s="1" t="n">
         <v>144</v>
       </c>
@@ -3176,7 +3250,7 @@
       </c>
       <c r="F164" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="165">
+    <row r="165" ht="15.5" customHeight="1">
       <c r="A165" s="1" t="n">
         <v>145</v>
       </c>
@@ -3194,7 +3268,7 @@
       </c>
       <c r="F165" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="166">
+    <row r="166" ht="15.5" customHeight="1">
       <c r="A166" s="1" t="n">
         <v>146</v>
       </c>
@@ -3212,7 +3286,7 @@
       </c>
       <c r="F166" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="167">
+    <row r="167" ht="15.5" customHeight="1">
       <c r="A167" s="1" t="n">
         <v>146</v>
       </c>
@@ -3230,7 +3304,7 @@
       </c>
       <c r="F167" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="168">
+    <row r="168" ht="15.5" customHeight="1">
       <c r="A168" s="1" t="n">
         <v>148</v>
       </c>
@@ -3248,7 +3322,7 @@
       </c>
       <c r="F168" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="169">
+    <row r="169" ht="15.5" customHeight="1">
       <c r="A169" s="1" t="n">
         <v>149</v>
       </c>
@@ -3266,7 +3340,7 @@
       </c>
       <c r="F169" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="170">
+    <row r="170" ht="15.5" customHeight="1">
       <c r="A170" s="1" t="n">
         <v>150</v>
       </c>
@@ -3284,7 +3358,7 @@
       </c>
       <c r="F170" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="171">
+    <row r="171" ht="15.5" customHeight="1">
       <c r="A171" s="1" t="n">
         <v>151</v>
       </c>
@@ -3302,7 +3376,7 @@
       </c>
       <c r="F171" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="172">
+    <row r="172" ht="15.5" customHeight="1">
       <c r="A172" s="1" t="n">
         <v>152</v>
       </c>
@@ -3320,7 +3394,7 @@
       </c>
       <c r="F172" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="173">
+    <row r="173" ht="15.5" customHeight="1">
       <c r="A173" s="1" t="n">
         <v>153</v>
       </c>
@@ -3338,7 +3412,7 @@
       </c>
       <c r="F173" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="174">
+    <row r="174" ht="15.5" customHeight="1">
       <c r="A174" s="1" t="n">
         <v>154</v>
       </c>
@@ -3356,7 +3430,7 @@
       </c>
       <c r="F174" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="175">
+    <row r="175" ht="15.5" customHeight="1">
       <c r="A175" s="1" t="n">
         <v>155</v>
       </c>
@@ -3374,7 +3448,7 @@
       </c>
       <c r="F175" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="176">
+    <row r="176" ht="15.5" customHeight="1">
       <c r="A176" s="1" t="n">
         <v>156</v>
       </c>
@@ -3392,7 +3466,7 @@
       </c>
       <c r="F176" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="177">
+    <row r="177" ht="15.5" customHeight="1">
       <c r="A177" s="1" t="n">
         <v>157</v>
       </c>
@@ -3410,7 +3484,7 @@
       </c>
       <c r="F177" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="178">
+    <row r="178" ht="15.5" customHeight="1">
       <c r="A178" s="1" t="n">
         <v>158</v>
       </c>
@@ -3428,7 +3502,7 @@
       </c>
       <c r="F178" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="179">
+    <row r="179" ht="15.5" customHeight="1">
       <c r="A179" s="1" t="n">
         <v>159</v>
       </c>
@@ -3446,7 +3520,7 @@
       </c>
       <c r="F179" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="180">
+    <row r="180" ht="15.5" customHeight="1">
       <c r="A180" s="1" t="n">
         <v>160</v>
       </c>
@@ -3464,7 +3538,7 @@
       </c>
       <c r="F180" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="181">
+    <row r="181" ht="15.5" customHeight="1">
       <c r="A181" s="1" t="n">
         <v>161</v>
       </c>
@@ -3482,7 +3556,7 @@
       </c>
       <c r="F181" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="182">
+    <row r="182" ht="15.5" customHeight="1">
       <c r="A182" s="1" t="n">
         <v>161</v>
       </c>
@@ -3500,7 +3574,7 @@
       </c>
       <c r="F182" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="183">
+    <row r="183" ht="15.5" customHeight="1">
       <c r="A183" s="1" t="n">
         <v>163</v>
       </c>
@@ -3518,7 +3592,7 @@
       </c>
       <c r="F183" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="184">
+    <row r="184" ht="15.5" customHeight="1">
       <c r="A184" s="1" t="n">
         <v>164</v>
       </c>
@@ -3536,7 +3610,7 @@
       </c>
       <c r="F184" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="185">
+    <row r="185" ht="15.5" customHeight="1">
       <c r="A185" s="1" t="n">
         <v>165</v>
       </c>
@@ -3554,7 +3628,7 @@
       </c>
       <c r="F185" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="186">
+    <row r="186" ht="15.5" customHeight="1">
       <c r="A186" s="1" t="n">
         <v>166</v>
       </c>
@@ -3572,7 +3646,7 @@
       </c>
       <c r="F186" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="187">
+    <row r="187" ht="15.5" customHeight="1">
       <c r="A187" s="1" t="n">
         <v>167</v>
       </c>
@@ -3590,7 +3664,7 @@
       </c>
       <c r="F187" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="188">
+    <row r="188" ht="15.5" customHeight="1">
       <c r="A188" s="1" t="n">
         <v>168</v>
       </c>
@@ -3608,7 +3682,7 @@
       </c>
       <c r="F188" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="189">
+    <row r="189" ht="15.5" customHeight="1">
       <c r="A189" s="1" t="n">
         <v>169</v>
       </c>
@@ -3626,7 +3700,7 @@
       </c>
       <c r="F189" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="190">
+    <row r="190" ht="15.5" customHeight="1">
       <c r="A190" s="1" t="n">
         <v>170</v>
       </c>
@@ -3644,7 +3718,7 @@
       </c>
       <c r="F190" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="191">
+    <row r="191" ht="15.5" customHeight="1">
       <c r="A191" s="1" t="n">
         <v>171</v>
       </c>
@@ -3664,7 +3738,7 @@
       </c>
       <c r="F191" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="192">
+    <row r="192" ht="15.5" customHeight="1">
       <c r="A192" s="1" t="n">
         <v>172</v>
       </c>
@@ -3682,7 +3756,7 @@
       </c>
       <c r="F192" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="193">
+    <row r="193" ht="15.5" customHeight="1">
       <c r="A193" s="1" t="n">
         <v>173</v>
       </c>
@@ -3700,7 +3774,7 @@
       </c>
       <c r="F193" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="194">
+    <row r="194" ht="15.5" customHeight="1">
       <c r="A194" s="1" t="n">
         <v>174</v>
       </c>
@@ -3718,7 +3792,7 @@
       </c>
       <c r="F194" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="195">
+    <row r="195" ht="15.5" customHeight="1">
       <c r="A195" s="1" t="n">
         <v>175</v>
       </c>
@@ -3736,7 +3810,7 @@
       </c>
       <c r="F195" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="196">
+    <row r="196" ht="15.5" customHeight="1">
       <c r="A196" s="1" t="n">
         <v>176</v>
       </c>
@@ -3754,7 +3828,7 @@
       </c>
       <c r="F196" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="197">
+    <row r="197" ht="15.5" customHeight="1">
       <c r="A197" s="1" t="n">
         <v>177</v>
       </c>
@@ -3772,7 +3846,7 @@
       </c>
       <c r="F197" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="198">
+    <row r="198" ht="15.5" customHeight="1">
       <c r="A198" s="1" t="n">
         <v>178</v>
       </c>
@@ -3790,7 +3864,7 @@
       </c>
       <c r="F198" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="199">
+    <row r="199" ht="15.5" customHeight="1">
       <c r="A199" s="1" t="n">
         <v>178</v>
       </c>
@@ -3808,7 +3882,7 @@
       </c>
       <c r="F199" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="200">
+    <row r="200" ht="15.5" customHeight="1">
       <c r="A200" s="1" t="n">
         <v>180</v>
       </c>
@@ -3826,7 +3900,7 @@
       </c>
       <c r="F200" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="201">
+    <row r="201" ht="15.5" customHeight="1">
       <c r="A201" s="1" t="n">
         <v>181</v>
       </c>
@@ -3844,7 +3918,7 @@
       </c>
       <c r="F201" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="202">
+    <row r="202" ht="15.5" customHeight="1">
       <c r="A202" s="1" t="n">
         <v>182</v>
       </c>
@@ -3862,7 +3936,7 @@
       </c>
       <c r="F202" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="203">
+    <row r="203" ht="15.5" customHeight="1">
       <c r="A203" s="1" t="n">
         <v>183</v>
       </c>
@@ -3880,7 +3954,7 @@
       </c>
       <c r="F203" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="204">
+    <row r="204" ht="15.5" customHeight="1">
       <c r="A204" s="1" t="n">
         <v>184</v>
       </c>
@@ -3898,7 +3972,7 @@
       </c>
       <c r="F204" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="205">
+    <row r="205" ht="15.5" customHeight="1">
       <c r="A205" s="1" t="n">
         <v>185</v>
       </c>
@@ -3916,7 +3990,7 @@
       </c>
       <c r="F205" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="206">
+    <row r="206" ht="15.5" customHeight="1">
       <c r="A206" s="1" t="n">
         <v>186</v>
       </c>
@@ -3934,7 +4008,7 @@
       </c>
       <c r="F206" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="207">
+    <row r="207" ht="15.5" customHeight="1">
       <c r="A207" s="1" t="n">
         <v>186</v>
       </c>
@@ -3952,7 +4026,7 @@
       </c>
       <c r="F207" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="208">
+    <row r="208" ht="15.5" customHeight="1">
       <c r="A208" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -3976,7 +4050,7 @@
       </c>
       <c r="F208" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="209">
+    <row r="209" ht="15.5" customHeight="1">
       <c r="A209" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -3996,7 +4070,7 @@
       </c>
       <c r="F209" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="210">
+    <row r="210" ht="15.5" customHeight="1">
       <c r="A210" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -4016,7 +4090,7 @@
       </c>
       <c r="F210" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="211">
+    <row r="211" ht="15.5" customHeight="1">
       <c r="A211" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -4036,7 +4110,7 @@
       </c>
       <c r="F211" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="212">
+    <row r="212" ht="15.5" customHeight="1">
       <c r="A212" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -4056,7 +4130,7 @@
       </c>
       <c r="F212" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="213">
+    <row r="213" ht="15.5" customHeight="1">
       <c r="A213" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -4076,7 +4150,7 @@
       </c>
       <c r="F213" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="214">
+    <row r="214" ht="15.5" customHeight="1">
       <c r="A214" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -4096,7 +4170,7 @@
       </c>
       <c r="F214" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="215">
+    <row r="215" ht="15.5" customHeight="1">
       <c r="A215" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -4116,7 +4190,7 @@
       </c>
       <c r="F215" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.5" r="216">
+    <row r="216" ht="15.5" customHeight="1">
       <c r="A216" s="6" t="inlineStr"/>
       <c r="B216" s="7" t="n"/>
       <c r="C216" s="7" t="n"/>
@@ -4124,14 +4198,14 @@
       <c r="E216" s="7" t="n"/>
       <c r="F216" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.5" r="217">
+    <row r="217" ht="15.5" customHeight="1">
       <c r="A217" s="3" t="inlineStr">
         <is>
           <t>Footnotes</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="218">
+    <row r="218" ht="15.5" customHeight="1">
       <c r="A218" s="6" t="inlineStr"/>
       <c r="B218" s="7" t="n"/>
       <c r="C218" s="7" t="n"/>
@@ -4139,14 +4213,14 @@
       <c r="E218" s="7" t="n"/>
       <c r="F218" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.5" r="219">
+    <row r="219" ht="15.5" customHeight="1">
       <c r="A219" s="3" t="inlineStr">
         <is>
           <t>Symbols</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="220">
+    <row r="220" ht="15.5" customHeight="1">
       <c r="A220" s="1" t="inlineStr">
         <is>
           <t>..</t>
@@ -4158,7 +4232,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="221">
+    <row r="221" ht="15.5" customHeight="1">
       <c r="A221" s="1" t="inlineStr">
         <is>
           <t>(.)</t>
@@ -4170,7 +4244,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="222">
+    <row r="222" ht="15.5" customHeight="1">
       <c r="A222" s="1" t="inlineStr">
         <is>
           <t>&lt;</t>
@@ -4182,7 +4256,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="223">
+    <row r="223" ht="15.5" customHeight="1">
       <c r="A223" s="1" t="inlineStr">
         <is>
           <t>-</t>
@@ -4194,7 +4268,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="224">
+    <row r="224" ht="15.5" customHeight="1">
       <c r="A224" s="1" t="inlineStr">
         <is>
           <t>T</t>
@@ -4432,6 +4506,6 @@
     <hyperlink ref="B214" r:id="rId194"/>
     <hyperlink ref="B215" r:id="rId195"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>